--- a/Odds-Data/nba odds 2019-20.xlsx
+++ b/Odds-Data/nba odds 2019-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4685FB-F6ED-481A-A932-DA885E7F8915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C81769-ED37-4E85-9866-86AF86BA593D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{18B830BE-FE77-4DB6-A10C-48DE8E782004}"/>
   </bookViews>
@@ -84264,7 +84264,7 @@
         <v>5.5</v>
       </c>
       <c r="K2042" s="2">
-        <v>4.5</v>
+        <v>232.5</v>
       </c>
       <c r="L2042" s="2">
         <v>155</v>
@@ -84305,7 +84305,7 @@
         <v>235</v>
       </c>
       <c r="K2043" s="2">
-        <v>232.5</v>
+        <v>4.5</v>
       </c>
       <c r="L2043" s="2">
         <v>-175</v>
@@ -88938,7 +88938,7 @@
         <v>1.5</v>
       </c>
       <c r="K2156" s="2">
-        <v>1</v>
+        <v>217.5</v>
       </c>
       <c r="L2156" s="2">
         <v>100</v>
@@ -88979,7 +88979,7 @@
         <v>220</v>
       </c>
       <c r="K2157" s="2">
-        <v>217.5</v>
+        <v>1</v>
       </c>
       <c r="L2157" s="2">
         <v>-120</v>
@@ -94019,10 +94019,10 @@
         <v>104</v>
       </c>
       <c r="J2280" s="2">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="K2280" s="2">
-        <v>-9.5</v>
+        <v>9.5</v>
       </c>
       <c r="L2280" s="2">
         <v>-420</v>
